--- a/productlist.xlsx
+++ b/productlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1680" windowWidth="27400" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="460">
   <si>
     <t>Parent</t>
   </si>
@@ -224,119 +224,1196 @@
     <t>Bulk Dist</t>
   </si>
   <si>
+    <t>* File and database transport and replication</t>
+  </si>
+  <si>
+    <t>* Global metadata service</t>
+  </si>
+  <si>
+    <t>* Provenance database</t>
+  </si>
+  <si>
+    <t>DBB</t>
+  </si>
+  <si>
+    <t>DTR</t>
+  </si>
+  <si>
+    <t>Provenence DB</t>
+  </si>
+  <si>
+    <t>Global Metadata</t>
+  </si>
+  <si>
+    <t>GMDS</t>
+  </si>
+  <si>
+    <t>PRDB</t>
+  </si>
+  <si>
+    <t>Batch Processing service</t>
+  </si>
+  <si>
+    <t>Computing and Storage Infrastructure including provisioning</t>
+  </si>
+  <si>
+    <t>* Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Developer environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Integration environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Production compute environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Production DAC environment</t>
+  </si>
+  <si>
+    <t>BPS</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>ITARC</t>
+  </si>
+  <si>
+    <t>Dev Env</t>
+  </si>
+  <si>
+    <t>DENV</t>
+  </si>
+  <si>
+    <t>INTENV</t>
+  </si>
+  <si>
+    <t>Integration Env</t>
+  </si>
+  <si>
+    <t>DAC Env</t>
+  </si>
+  <si>
+    <t>Compute Env</t>
+  </si>
+  <si>
+    <t>COMPENV</t>
+  </si>
+  <si>
+    <t>DACENV</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Mountain Base</t>
+  </si>
+  <si>
+    <t>BCOMPENV</t>
+  </si>
+  <si>
+    <t>BDACENV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Comp Env</t>
+  </si>
+  <si>
+    <t>* L1 science payloads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Prompt Processing AP payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Single Frame Processing pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Alert Generation pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Prompt Processing calibration frame payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Calibration Single Frame Processing pipeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + OCS control scripts for CBP control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Offline AP payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Offline Single Frame Processing pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Offline Alert Generation pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Offline Auxiliary Telescope Spectrograph pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Offline daytime AP payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Precovery and Forced Photometry pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Moving Object pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Offline calibration frame payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - Offline Calibration Single Frame Processing pipeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + OCS-Controlled Batch daily CPP payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + L1 QC measurement generators</t>
+  </si>
+  <si>
+    <t>* Alert Broker Feed service</t>
+  </si>
+  <si>
+    <t>* Alert Mini-Broker service</t>
+  </si>
+  <si>
+    <t>L1SP</t>
+  </si>
+  <si>
+    <t>L1 Sci payloads</t>
+  </si>
+  <si>
+    <t>L1PP</t>
+  </si>
+  <si>
+    <t>Prompt Processing AP</t>
+  </si>
+  <si>
+    <t>Single Frame</t>
+  </si>
+  <si>
+    <t>SFPP</t>
+  </si>
+  <si>
+    <t>AGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert Generation </t>
+  </si>
+  <si>
+    <t>Alert Broker Feed</t>
+  </si>
+  <si>
+    <t>ABFS</t>
+  </si>
+  <si>
+    <t>AMBS</t>
+  </si>
+  <si>
+    <t>Alert Mini Broker</t>
+  </si>
+  <si>
+    <t>L1 QC measures</t>
+  </si>
+  <si>
+    <t>OFFCAL</t>
+  </si>
+  <si>
+    <t>OFFCALSFP</t>
+  </si>
+  <si>
+    <t>Offline Cal Single Frame</t>
+  </si>
+  <si>
+    <t>Offline Cal frame</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>Moving Object Pipe</t>
+  </si>
+  <si>
+    <t>OFFDAP</t>
+  </si>
+  <si>
+    <t>PFPP</t>
+  </si>
+  <si>
+    <t>Pre/Forces Phot Pipe</t>
+  </si>
+  <si>
+    <t>OFFAP</t>
+  </si>
+  <si>
+    <t>Offline day AP</t>
+  </si>
+  <si>
+    <t>Offline  AP</t>
+  </si>
+  <si>
+    <t>Offline Single Frame</t>
+  </si>
+  <si>
+    <t>Offline Alerts</t>
+  </si>
+  <si>
+    <t>Offline Aux Tel Spec</t>
+  </si>
+  <si>
+    <t>OATS</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>OFFSFP</t>
+  </si>
+  <si>
+    <t>OCS Control CBP</t>
+  </si>
+  <si>
+    <t>CSFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal Single Frame </t>
+  </si>
+  <si>
+    <t>PPCF</t>
+  </si>
+  <si>
+    <t>Prompt Proc Cal Frame</t>
+  </si>
+  <si>
+    <t>* Periodic CPP payload</t>
+  </si>
+  <si>
+    <t>* Annual CPP payload</t>
+  </si>
+  <si>
+    <t>* CPP QC measurement generators</t>
+  </si>
+  <si>
+    <t>* Annual mini-DRP and DRP payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Image Characterization and Calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Image Coaddition and Image Differencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Coadd Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Overlap Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Multi-Epoch Object Characterization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Postprocessing</t>
+  </si>
+  <si>
+    <t>* L2 QC measurement generators</t>
+  </si>
+  <si>
+    <t>L2SP</t>
+  </si>
+  <si>
+    <t>L2 Sci Payloads</t>
+  </si>
+  <si>
+    <t>PCPP</t>
+  </si>
+  <si>
+    <t>Periodic CPP</t>
+  </si>
+  <si>
+    <t>ACPP</t>
+  </si>
+  <si>
+    <t>Annual CPP</t>
+  </si>
+  <si>
+    <t>CPP QC Measures</t>
+  </si>
+  <si>
+    <t>CPPQC</t>
+  </si>
+  <si>
+    <t>ADRP</t>
+  </si>
+  <si>
+    <t>Annual DRP Payloads</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>Image Cal Char</t>
+  </si>
+  <si>
+    <t>Image Coadd/Diff</t>
+  </si>
+  <si>
+    <t>ICADIF</t>
+  </si>
+  <si>
+    <t>COADDP</t>
+  </si>
+  <si>
+    <t>OVRES</t>
+  </si>
+  <si>
+    <t>Coadd Processing</t>
+  </si>
+  <si>
+    <t>Postprocessing</t>
+  </si>
+  <si>
+    <t>Overlap Resolution</t>
+  </si>
+  <si>
+    <t>MEOC</t>
+  </si>
+  <si>
+    <t>Multi-Epoch Object Char</t>
+  </si>
+  <si>
+    <t>POSTP</t>
+  </si>
+  <si>
+    <t>L2QCM</t>
+  </si>
+  <si>
+    <t>L2 QC measures</t>
+  </si>
+  <si>
+    <t>Common science algortihmic components</t>
+  </si>
+  <si>
+    <t>* Reference catalogs</t>
+  </si>
+  <si>
+    <t>* ISR</t>
+  </si>
+  <si>
+    <t>* Artifact detection</t>
+  </si>
+  <si>
+    <t>* Artifact interpolation</t>
+  </si>
+  <si>
+    <t>* Source detection</t>
+  </si>
+  <si>
+    <t>* Deblending</t>
+  </si>
+  <si>
+    <t>* Measurement</t>
+  </si>
+  <si>
+    <t>* Spatial models</t>
+  </si>
+  <si>
+    <t>* Background estimation</t>
+  </si>
+  <si>
+    <t>* Background reference</t>
+  </si>
+  <si>
+    <t>* PSF estimation</t>
+  </si>
+  <si>
+    <t>* Aperture correction</t>
+  </si>
+  <si>
+    <t>* Astrometric fitting</t>
+  </si>
+  <si>
+    <t>* Photometric fitting</t>
+  </si>
+  <si>
+    <t>* Difference template storage/retrieval</t>
+  </si>
+  <si>
+    <t>* PSF matching</t>
+  </si>
+  <si>
+    <t>* Image coaddition</t>
+  </si>
+  <si>
+    <t>* DCR-corrected template generation</t>
+  </si>
+  <si>
+    <t>* Image decorrelation</t>
+  </si>
+  <si>
+    <t>* Star/galaxy classification</t>
+  </si>
+  <si>
+    <t>* Variability characterization</t>
+  </si>
+  <si>
+    <t>* Proper motion and parallax</t>
+  </si>
+  <si>
+    <t>* Association and matching</t>
+  </si>
+  <si>
+    <t>* Raw measurement calibration</t>
+  </si>
+  <si>
+    <t>* Ephemeris calculation</t>
+  </si>
+  <si>
+    <t>* Tracklet generation</t>
+  </si>
+  <si>
+    <t>* Attribution and precovery</t>
+  </si>
+  <si>
+    <t>* Orbit fitting</t>
+  </si>
+  <si>
+    <t>* Orbit merging</t>
+  </si>
+  <si>
+    <t>Science software primitives</t>
+  </si>
+  <si>
+    <t>CSAC</t>
+  </si>
+  <si>
+    <t>Sci Algo Components</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Source detection</t>
+  </si>
+  <si>
+    <t>Deblending</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Spatial models</t>
+  </si>
+  <si>
+    <t>PSF estimation</t>
+  </si>
+  <si>
+    <t>Image decorrelation</t>
+  </si>
+  <si>
+    <t>Orbit fitting</t>
+  </si>
+  <si>
+    <t>Orbit merging</t>
+  </si>
+  <si>
+    <t>Attrib/Prerec</t>
+  </si>
+  <si>
+    <t>Tracklets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephemeris </t>
+  </si>
+  <si>
+    <t>Assoc/Match</t>
+  </si>
+  <si>
+    <t>Prop Mot/Parallax</t>
+  </si>
+  <si>
+    <t>Variability char</t>
+  </si>
+  <si>
+    <t>Star/galaxy classif</t>
+  </si>
+  <si>
+    <t>DCR-cor temp gen</t>
+  </si>
+  <si>
+    <t>PSF match</t>
+  </si>
+  <si>
+    <t>Photo fitting</t>
+  </si>
+  <si>
+    <t>Astro fitting</t>
+  </si>
+  <si>
+    <t>Aperture cor</t>
+  </si>
+  <si>
+    <t>Background ref</t>
+  </si>
+  <si>
+    <t>Background est</t>
+  </si>
+  <si>
+    <t>Artifact interp</t>
+  </si>
+  <si>
+    <t>Artifact detect</t>
+  </si>
+  <si>
+    <t>Ref catalogs</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>ADET</t>
+  </si>
+  <si>
+    <t>AINT</t>
+  </si>
+  <si>
+    <t>SRCD</t>
+  </si>
+  <si>
+    <t>DEBL</t>
+  </si>
+  <si>
+    <t>MEAS</t>
+  </si>
+  <si>
+    <t>SPATM</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>PSFE</t>
+  </si>
+  <si>
+    <t>APCOR</t>
+  </si>
+  <si>
+    <t>ASTROF</t>
+  </si>
+  <si>
+    <t>PHOTF</t>
+  </si>
+  <si>
+    <t>Diff templ stor/retrieve</t>
+  </si>
+  <si>
+    <t>DTSR</t>
+  </si>
+  <si>
+    <t>PSFM</t>
+  </si>
+  <si>
+    <t>IMCOADD</t>
+  </si>
+  <si>
+    <t>Image coadd</t>
+  </si>
+  <si>
+    <t>DCRCORTMPL</t>
+  </si>
+  <si>
+    <t>IMDECOR</t>
+  </si>
+  <si>
+    <t>CLASIF</t>
+  </si>
+  <si>
+    <t>PMPAR</t>
+  </si>
+  <si>
+    <t>ASOCMAT</t>
+  </si>
+  <si>
+    <t>RAWM</t>
+  </si>
+  <si>
+    <t>EPHEM</t>
+  </si>
+  <si>
+    <t>TRACKL</t>
+  </si>
+  <si>
+    <t>ATTPREC</t>
+  </si>
+  <si>
+    <t>ORBF</t>
+  </si>
+  <si>
+    <t>ORBM</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>Cartesian geometry</t>
+  </si>
+  <si>
+    <t>Spherical geometry</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Multi-Type Associative Containers</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Footprints</t>
+  </si>
+  <si>
+    <t>Basic Statistics</t>
+  </si>
+  <si>
+    <t>Chromaticity Utilities</t>
+  </si>
+  <si>
+    <t>Photometric Calibration</t>
+  </si>
+  <si>
+    <t>Convolution Kernels</t>
+  </si>
+  <si>
+    <t>Coordinate Transformations</t>
+  </si>
+  <si>
+    <t>Numerical Integration</t>
+  </si>
+  <si>
+    <t>Random Number Generation</t>
+  </si>
+  <si>
+    <t>Interpolation and Approximation of 2-D Fields</t>
+  </si>
+  <si>
+    <t>Common Functions and Source Profiles</t>
+  </si>
+  <si>
+    <t>Camera Descriptions</t>
+  </si>
+  <si>
+    <t>Numerical Optimization</t>
+  </si>
+  <si>
+    <t>Monte Carlo Sampling</t>
+  </si>
+  <si>
+    <t>Point-Spread Functions</t>
+  </si>
+  <si>
+    <t>Warping</t>
+  </si>
+  <si>
+    <t>Fourier Transforms</t>
+  </si>
+  <si>
+    <t>Tree Structures</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>CARTG</t>
+  </si>
+  <si>
+    <t>SPHERG</t>
+  </si>
+  <si>
+    <t>IMAGES</t>
+  </si>
+  <si>
+    <t>MTAC</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>FOOTP</t>
+  </si>
+  <si>
+    <t>BSTAT</t>
+  </si>
+  <si>
+    <t>CHROM</t>
+  </si>
+  <si>
+    <t>PHOTOCAL</t>
+  </si>
+  <si>
+    <t>CONVK</t>
+  </si>
+  <si>
+    <t>COORDT</t>
+  </si>
+  <si>
+    <t>NUMI</t>
+  </si>
+  <si>
+    <t>RND</t>
+  </si>
+  <si>
+    <t>CFSRCP</t>
+  </si>
+  <si>
+    <t>CAMDES</t>
+  </si>
+  <si>
+    <t>NUMOPT</t>
+  </si>
+  <si>
+    <t>MCSAMP</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t>WARP</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>TOOLS</t>
+  </si>
+  <si>
+    <t>Cart geometry</t>
+  </si>
+  <si>
+    <t>Spher Geometry</t>
+  </si>
+  <si>
+    <t>Multi-Type Assoc Cont</t>
+  </si>
+  <si>
+    <t>Photo Cal</t>
+  </si>
+  <si>
+    <t>Coordinate Trans</t>
+  </si>
+  <si>
+    <t>Random Number Gen</t>
+  </si>
+  <si>
+    <t>Interp/Apprx 2-D Fields</t>
+  </si>
+  <si>
+    <t>Common Funct/ Src Prof</t>
+  </si>
+  <si>
+    <t>Numerical Opt</t>
+  </si>
+  <si>
+    <t>Monte Carlo Samp</t>
+  </si>
+  <si>
+    <t>Point-Spread Funcs</t>
+  </si>
+  <si>
+    <t>ADBS</t>
+  </si>
+  <si>
+    <t>Alert Database service</t>
+  </si>
+  <si>
+    <t>Alert DB service</t>
+  </si>
+  <si>
+    <t>Sci Pipeline Team</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>Networks Team</t>
+  </si>
+  <si>
+    <t>Summit network</t>
+  </si>
+  <si>
+    <t>Base network</t>
+  </si>
+  <si>
+    <t>International networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networks </t>
+  </si>
+  <si>
+    <t>SUMNET</t>
+  </si>
+  <si>
+    <t>BASENET</t>
+  </si>
+  <si>
+    <t>INTNET</t>
+  </si>
+  <si>
+    <t>DAX Team</t>
+  </si>
+  <si>
+    <t>L1 catalog database</t>
+  </si>
+  <si>
+    <t>L1 catalog DB</t>
+  </si>
+  <si>
+    <t>L2CATDB</t>
+  </si>
+  <si>
+    <t>DRP-internal database</t>
+  </si>
+  <si>
+    <t>L2 catalog database</t>
+  </si>
+  <si>
+    <t>Qserv distributed database system</t>
+  </si>
+  <si>
+    <t>DRPDB</t>
+  </si>
+  <si>
+    <t>L1CATDB</t>
+  </si>
+  <si>
+    <t>QSERV</t>
+  </si>
+  <si>
+    <t>DRP int DB</t>
+  </si>
+  <si>
+    <t>L2 catalog DB</t>
+  </si>
+  <si>
+    <t>QSERV DB</t>
+  </si>
+  <si>
+    <t>DAX Web services including VO interfaces</t>
+  </si>
+  <si>
+    <t>DAX Services/VO</t>
+  </si>
+  <si>
+    <t>DAXS</t>
+  </si>
+  <si>
+    <t>Image access</t>
+  </si>
+  <si>
+    <t>Catalog access</t>
+  </si>
+  <si>
+    <t>Image metadata access</t>
+  </si>
+  <si>
+    <t>Catalog metadata access</t>
+  </si>
+  <si>
+    <t>Image metadata acc</t>
+  </si>
+  <si>
+    <t>Catalog metadata acc</t>
+  </si>
+  <si>
+    <t>CATMETA</t>
+  </si>
+  <si>
+    <t>IMMETA</t>
+  </si>
+  <si>
+    <t>CATA</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Data Butler client library</t>
+  </si>
+  <si>
+    <t>BUTL</t>
+  </si>
+  <si>
+    <t>Task Execution Framework</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>Task Exec Framewrk</t>
+  </si>
+  <si>
+    <t>SuperTask</t>
+  </si>
+  <si>
+    <t>Activator Base and Command Line Activator</t>
+  </si>
+  <si>
+    <t>Pipeline Configuration API</t>
+  </si>
+  <si>
+    <t>Logging API</t>
+  </si>
+  <si>
+    <t>Multi-Node Task API</t>
+  </si>
+  <si>
+    <t>Multi-Core Task API</t>
+  </si>
+  <si>
+    <t>SUPT</t>
+  </si>
+  <si>
+    <t>ACTI</t>
+  </si>
+  <si>
+    <t>PIPECON</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>MNTA</t>
+  </si>
+  <si>
+    <t>MCTA</t>
+  </si>
+  <si>
+    <t>Pipeline ConfigAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activator/ Cmd Line </t>
+  </si>
+  <si>
+    <t>QC measurement collection/storage/dashboard service</t>
+  </si>
+  <si>
+    <t>Science Platform service Notebook component</t>
+  </si>
+  <si>
+    <t>Developer services</t>
+  </si>
+  <si>
+    <t>Automated integration and test services</t>
+  </si>
+  <si>
+    <t>SQuaRE Team</t>
+  </si>
+  <si>
+    <t>QC System</t>
+  </si>
+  <si>
+    <t>QCS</t>
+  </si>
+  <si>
+    <t>QC Col/Stor</t>
+  </si>
+  <si>
+    <t>QC Dashboard</t>
+  </si>
+  <si>
+    <t>QCCS</t>
+  </si>
+  <si>
+    <t>QCDASH</t>
+  </si>
+  <si>
+    <t>Science Platform</t>
+  </si>
+  <si>
+    <t>SCIP</t>
+  </si>
+  <si>
+    <t>Mario Juric</t>
+  </si>
+  <si>
+    <t>Notebook Container</t>
+  </si>
+  <si>
+    <t>Notebook Activators</t>
+  </si>
+  <si>
+    <t>NBCA</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>DEVS</t>
+  </si>
+  <si>
+    <t>Software version control service</t>
+  </si>
+  <si>
+    <t>Build and unit test service</t>
+  </si>
+  <si>
+    <t>Ticket tracking service</t>
+  </si>
+  <si>
+    <t>Documentation services</t>
+  </si>
+  <si>
+    <t>NCSA</t>
+  </si>
+  <si>
+    <t>SMOKE TEST Integration System</t>
+  </si>
+  <si>
+    <t>NDB</t>
+  </si>
+  <si>
+    <t>Notebook Deployment</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>SVCS</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built/Unit test </t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>TICKS</t>
+  </si>
+  <si>
+    <t>DOCS</t>
+  </si>
+  <si>
+    <t>Continous Build</t>
+  </si>
+  <si>
+    <t>DEPL</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Science Platform service Portal component</t>
+  </si>
+  <si>
+    <t>SUI Activators</t>
+  </si>
+  <si>
+    <t>SUI Team</t>
+  </si>
+  <si>
+    <t>Widgets</t>
+  </si>
+  <si>
+    <t>Notebook widgets</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>SUIA</t>
+  </si>
+  <si>
+    <t>NBW</t>
+  </si>
+  <si>
+    <t>OCS Batch Daily CPP</t>
+  </si>
+  <si>
+    <t>OCSBDCPP</t>
+  </si>
+  <si>
+    <t>L1QCM</t>
+  </si>
+  <si>
+    <t>Chromaticity Util</t>
+  </si>
+  <si>
+    <t>GEOM</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>IA2DF</t>
+  </si>
+  <si>
+    <t>VARI</t>
+  </si>
+  <si>
+    <t>ORB</t>
+  </si>
+  <si>
+    <t>Ephemeris/Orbits</t>
+  </si>
+  <si>
+    <t>Raw meas cal</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>BGART</t>
+  </si>
+  <si>
+    <t>Image processing</t>
+  </si>
+  <si>
+    <t>IMPROC</t>
+  </si>
+  <si>
+    <t>File/DB Transport</t>
+  </si>
+  <si>
     <t>Data Backbone</t>
   </si>
   <si>
-    <t>* File and database transport and replication</t>
-  </si>
-  <si>
-    <t>* Global metadata service</t>
-  </si>
-  <si>
-    <t>* Provenance database</t>
-  </si>
-  <si>
-    <t>DBB</t>
-  </si>
-  <si>
-    <t>DTR</t>
-  </si>
-  <si>
-    <t>Transport/Replication</t>
-  </si>
-  <si>
-    <t>Provenence DB</t>
-  </si>
-  <si>
-    <t>Global Metadata</t>
-  </si>
-  <si>
-    <t>GMDS</t>
-  </si>
-  <si>
-    <t>PRDB</t>
-  </si>
-  <si>
-    <t>Batch Processing service</t>
-  </si>
-  <si>
-    <t>Computing and Storage Infrastructure including provisioning</t>
-  </si>
-  <si>
-    <t>* Archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  + Developer environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  + Integration environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  + Production compute environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  + Production DAC environment</t>
-  </si>
-  <si>
-    <t>BPS</t>
-  </si>
-  <si>
-    <t>ITS</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>ITARC</t>
-  </si>
-  <si>
-    <t>Dev Env</t>
-  </si>
-  <si>
-    <t>DENV</t>
-  </si>
-  <si>
-    <t>INTENV</t>
-  </si>
-  <si>
-    <t>Integration Env</t>
-  </si>
-  <si>
-    <t>DAC Env</t>
-  </si>
-  <si>
-    <t>Compute Env</t>
-  </si>
-  <si>
-    <t>COMPENV</t>
-  </si>
-  <si>
-    <t>DACENV</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>Mountain Base</t>
-  </si>
-  <si>
-    <t>BCOMPENV</t>
-  </si>
-  <si>
-    <t>BDACENV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Comp Env</t>
+    <t>OCSCCBP</t>
+  </si>
+  <si>
+    <t>Bkgrnd/Artifacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +1437,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,17 +1460,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,15 +1755,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
@@ -720,466 +1811,2578 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
+        <v>349</v>
+      </c>
+      <c r="E8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="B35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>352</v>
+      </c>
+      <c r="E47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>353</v>
+      </c>
+      <c r="E48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>361</v>
+      </c>
+      <c r="E64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" t="s">
+        <v>364</v>
+      </c>
+      <c r="E65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" t="s">
+        <v>366</v>
+      </c>
+      <c r="E67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" t="s">
+        <v>379</v>
+      </c>
+      <c r="C70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D70" t="s">
+        <v>377</v>
+      </c>
+      <c r="E70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" t="s">
+        <v>380</v>
+      </c>
+      <c r="E71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" t="s">
+        <v>393</v>
+      </c>
+      <c r="C72" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" t="s">
+        <v>392</v>
+      </c>
+      <c r="C73" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" t="s">
+        <v>382</v>
+      </c>
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" t="s">
+        <v>383</v>
+      </c>
+      <c r="E74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" t="s">
+        <v>384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>384</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
+        <v>385</v>
+      </c>
+      <c r="E76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>400</v>
+      </c>
+      <c r="B78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>403</v>
+      </c>
+      <c r="B79" t="s">
+        <v>401</v>
+      </c>
+      <c r="C79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>404</v>
+      </c>
+      <c r="B80" t="s">
+        <v>402</v>
+      </c>
+      <c r="C80" t="s">
+        <v>400</v>
+      </c>
+      <c r="E80" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>411</v>
+      </c>
+      <c r="B83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" t="s">
+        <v>395</v>
+      </c>
+      <c r="E83" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>419</v>
+      </c>
+      <c r="B85" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>437</v>
+      </c>
+      <c r="B86" t="s">
+        <v>436</v>
+      </c>
+      <c r="C86" t="s">
+        <v>406</v>
+      </c>
+      <c r="D86" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>438</v>
+      </c>
+      <c r="B87" t="s">
+        <v>432</v>
+      </c>
+      <c r="C87" t="s">
+        <v>406</v>
+      </c>
+      <c r="D87" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>439</v>
+      </c>
+      <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
+        <v>406</v>
+      </c>
+      <c r="D88" t="s">
+        <v>434</v>
+      </c>
+      <c r="E88" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>412</v>
+      </c>
+      <c r="B90" t="s">
+        <v>396</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>425</v>
+      </c>
+      <c r="B92" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" t="s">
+        <v>412</v>
+      </c>
+      <c r="D92" t="s">
+        <v>414</v>
+      </c>
+      <c r="E92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>426</v>
+      </c>
+      <c r="B93" t="s">
+        <v>415</v>
+      </c>
+      <c r="C93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" t="s">
+        <v>415</v>
+      </c>
+      <c r="E93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" t="s">
+        <v>412</v>
+      </c>
+      <c r="D94" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>397</v>
+      </c>
+      <c r="E95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>429</v>
+      </c>
+      <c r="B96" t="s">
+        <v>430</v>
+      </c>
+      <c r="C96" t="s">
+        <v>412</v>
+      </c>
+      <c r="D96" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" t="s">
+        <v>344</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>341</v>
+      </c>
+      <c r="C99" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" t="s">
+        <v>341</v>
+      </c>
+      <c r="E99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" t="s">
+        <v>342</v>
+      </c>
+      <c r="C100" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" t="s">
+        <v>342</v>
+      </c>
+      <c r="E100" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>347</v>
+      </c>
+      <c r="B101" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" t="s">
+        <v>343</v>
+      </c>
+      <c r="E101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" t="s">
+        <v>337</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" t="s">
+        <v>457</v>
+      </c>
+      <c r="C108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" t="s">
+        <v>456</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>87</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" t="s">
+        <v>89</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" t="s">
+        <v>79</v>
+      </c>
+      <c r="E123" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
         <v>57</v>
       </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D126" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" t="s">
+        <v>206</v>
+      </c>
+      <c r="E130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" t="s">
+        <v>207</v>
+      </c>
+      <c r="E131" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+      <c r="D132" t="s">
+        <v>208</v>
+      </c>
+      <c r="E132" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" t="s">
+        <v>221</v>
+      </c>
+      <c r="D133" t="s">
+        <v>210</v>
+      </c>
+      <c r="E133" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" t="s">
+        <v>211</v>
+      </c>
+      <c r="E134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>221</v>
+      </c>
+      <c r="D136" t="s">
+        <v>213</v>
+      </c>
+      <c r="E136" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" t="s">
+        <v>214</v>
+      </c>
+      <c r="E137" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>455</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C138" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" t="s">
+        <v>455</v>
+      </c>
+      <c r="D139" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C140" t="s">
+        <v>455</v>
+      </c>
+      <c r="D140" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C141" t="s">
+        <v>455</v>
+      </c>
+      <c r="D141" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>254</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" t="s">
+        <v>455</v>
+      </c>
+      <c r="D142" t="s">
+        <v>197</v>
+      </c>
+      <c r="E142" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>455</v>
+      </c>
+      <c r="D143" t="s">
+        <v>198</v>
+      </c>
+      <c r="E143" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C144" t="s">
+        <v>455</v>
+      </c>
+      <c r="D144" t="s">
+        <v>201</v>
+      </c>
+      <c r="E144" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" t="s">
+        <v>455</v>
+      </c>
+      <c r="D145" t="s">
+        <v>202</v>
+      </c>
+      <c r="E145" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>453</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C146" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>250</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C147" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" t="s">
+        <v>193</v>
+      </c>
+      <c r="E147" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>251</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C148" t="s">
+        <v>453</v>
+      </c>
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>256</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C149" t="s">
+        <v>453</v>
+      </c>
+      <c r="D149" t="s">
+        <v>199</v>
+      </c>
+      <c r="E149" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C150" t="s">
+        <v>453</v>
+      </c>
+      <c r="D150" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>451</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C151" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>260</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" t="s">
+        <v>451</v>
+      </c>
+      <c r="D152" t="s">
+        <v>203</v>
+      </c>
+      <c r="E152" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>261</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" t="s">
+        <v>451</v>
+      </c>
+      <c r="D153" t="s">
+        <v>204</v>
+      </c>
+      <c r="E153" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>448</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" t="s">
+        <v>448</v>
+      </c>
+      <c r="D155" t="s">
+        <v>215</v>
+      </c>
+      <c r="E155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" t="s">
+        <v>448</v>
+      </c>
+      <c r="D156" t="s">
+        <v>218</v>
+      </c>
+      <c r="E156" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" t="s">
+        <v>448</v>
+      </c>
+      <c r="D157" t="s">
+        <v>219</v>
+      </c>
+      <c r="E157" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C158" t="s">
+        <v>448</v>
+      </c>
+      <c r="D158" t="s">
+        <v>216</v>
+      </c>
+      <c r="E158" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>275</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C159" t="s">
+        <v>448</v>
+      </c>
+      <c r="D159" t="s">
+        <v>217</v>
+      </c>
+      <c r="E159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
+      <c r="D161" t="s">
+        <v>220</v>
+      </c>
+      <c r="E161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E162" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C163" t="s">
+        <v>278</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E163" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C164" t="s">
+        <v>278</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E164" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>308</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" t="s">
+        <v>278</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E165" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>316</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C166" t="s">
+        <v>278</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E166" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>278</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E167" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>318</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" t="s">
+        <v>278</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E168" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>319</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" t="s">
+        <v>278</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E169" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>444</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C170" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C171" t="s">
+        <v>444</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E171" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>303</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C172" t="s">
+        <v>444</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>312</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C173" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>304</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C174" t="s">
+        <v>278</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E174" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>309</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C175" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E175" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C176" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E176" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>311</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C177" t="s">
+        <v>304</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E177" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>446</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C178" t="s">
+        <v>304</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E178" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>315</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C179" t="s">
+        <v>304</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E179" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E180" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>323</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C181" t="s">
+        <v>278</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E181" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>313</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" t="s">
+        <v>323</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E182" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C183" t="s">
+        <v>323</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E183" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C184" t="s">
+        <v>323</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E184" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>314</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C185" t="s">
+        <v>278</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E185" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+      <c r="D186" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
